--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3724.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3724.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.320876648854693</v>
+        <v>1.735270261764526</v>
       </c>
       <c r="B1">
-        <v>2.649374661542372</v>
+        <v>3.082437753677368</v>
       </c>
       <c r="C1">
-        <v>6.024372616009471</v>
+        <v>2.804192066192627</v>
       </c>
       <c r="D1">
-        <v>2.217337822843577</v>
+        <v>1.884963274002075</v>
       </c>
       <c r="E1">
-        <v>1.062590723466038</v>
+        <v>0.8557856678962708</v>
       </c>
     </row>
   </sheetData>
